--- a/非受控文档/需求规格说明阶段/优先级QFD打分表/项目发起人优先级打分表_fym.xlsx
+++ b/非受控文档/需求规格说明阶段/优先级QFD打分表/项目发起人优先级打分表_fym.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41987955-ADD7-49FB-8F5E-17DC0443A6C0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7517490-02F0-40DB-A8A9-F6D7E2033D08}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -522,7 +522,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -551,7 +551,7 @@
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -619,8 +619,8 @@
         <v>0.10169491525423729</v>
       </c>
       <c r="J3" s="7">
-        <f>E3/(G3+I3)*0.4</f>
-        <v>0.21671768307040262</v>
+        <f>E3/(G3+I3)*1</f>
+        <v>0.5417942076760065</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -656,8 +656,8 @@
         <v>0.10169491525423729</v>
       </c>
       <c r="J4" s="7">
-        <f t="shared" ref="J4:J14" si="4">E4/(G4+I4)*0.4</f>
-        <v>0.18461135965256523</v>
+        <f t="shared" ref="J4:J14" si="4">E4/(G4+I4)*1</f>
+        <v>0.46152839913141303</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -694,7 +694,7 @@
       </c>
       <c r="J5" s="7">
         <f t="shared" si="4"/>
-        <v>0.16643223869030321</v>
+        <v>0.41608059672575803</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -731,7 +731,7 @@
       </c>
       <c r="J6" s="7">
         <f t="shared" si="4"/>
-        <v>0.16643223869030321</v>
+        <v>0.41608059672575803</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -768,7 +768,7 @@
       </c>
       <c r="J7" s="7">
         <f t="shared" si="4"/>
-        <v>0.15250503623472778</v>
+        <v>0.38126259058681944</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -805,7 +805,7 @@
       </c>
       <c r="J8" s="7">
         <f t="shared" si="4"/>
-        <v>0.21398430688753273</v>
+        <v>0.53496076721883179</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -842,7 +842,7 @@
       </c>
       <c r="J9" s="7">
         <f t="shared" si="4"/>
-        <v>0.21398430688753273</v>
+        <v>0.53496076721883179</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -879,7 +879,7 @@
       </c>
       <c r="J10" s="7">
         <f t="shared" si="4"/>
-        <v>0.14325849254834819</v>
+        <v>0.35814623137087048</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -916,7 +916,7 @@
       </c>
       <c r="J11" s="7">
         <f t="shared" si="4"/>
-        <v>0.26417815665127492</v>
+        <v>0.66044539162818727</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -953,7 +953,7 @@
       </c>
       <c r="J12" s="7">
         <f t="shared" si="4"/>
-        <v>0.35664051147922116</v>
+        <v>0.89160127869805283</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -990,7 +990,7 @@
       </c>
       <c r="J13" s="7">
         <f t="shared" si="4"/>
-        <v>0.26417815665127492</v>
+        <v>0.66044539162818727</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="J14" s="7">
         <f t="shared" si="4"/>
-        <v>0.1981336174884562</v>
+        <v>0.49533404372114048</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1071,5 +1071,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>